--- a/va_facility_data_2025-02-20/Fairbanks VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Fairbanks%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Fairbanks VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Fairbanks%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R444c9a596f3d4756a3a882d13b758167"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf16e2ee9dfc34822a6bd83547cbfea65"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb75a4790deb7445a8f42744e38c7b6a6"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R8aa3cd49d9ed4e1189cdfd1cc40372f1"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rbd24daaa6bac4d148937a2d123297958"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R986c1a6b1be844f085c68adb786842c3"/>
   </x:sheets>
 </x:workbook>
 </file>
